--- a/figures/paper_figures/table_one.xlsx
+++ b/figures/paper_figures/table_one.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,17 +10,17 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1596A4CC-34E4-4076-8B6C-89BB1FFAF7F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="465" windowWidth="13785" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="465" windowWidth="13785" windowHeight="15045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="98">
   <si>
     <t>AtM1</t>
   </si>
@@ -302,6 +302,18 @@
   </si>
   <si>
     <t>Number of Recordings</t>
+  </si>
+  <si>
+    <t>P1_A</t>
+  </si>
+  <si>
+    <t>P1_P</t>
+  </si>
+  <si>
+    <t>P2_A</t>
+  </si>
+  <si>
+    <t>P2_P</t>
   </si>
 </sst>
 </file>
@@ -328,7 +340,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -366,47 +378,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Footer" xfId="2" xr:uid="{45C8049A-0CC0-4C47-9845-8FF3B0F410AA}"/>
     <cellStyle name="Header" xfId="1" xr:uid="{8BBA0DD3-5DF3-49E2-AD64-507B5E931C93}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -718,52 +734,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="false" tabSelected="true" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="3" customWidth="true"/>
+    <col min="2" max="2" width="9.83203125" style="3" customWidth="true"/>
+    <col min="3" max="3" width="11.83203125" style="3" customWidth="true"/>
+    <col min="4" max="4" width="15" style="3" customWidth="true"/>
+    <col min="5" max="5" width="9.33203125" style="3" customWidth="true"/>
+    <col min="6" max="6" width="12.5" style="3" customWidth="true"/>
+    <col min="7" max="7" width="19.1640625" style="3" customWidth="true"/>
     <col min="8" max="16384" width="9.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="27.75" customHeight="true" thickBot="true" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="10.5" customHeight="true" thickTop="true" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="1">
@@ -772,15 +788,15 @@
       <c r="D2" s="3">
         <v>1.5</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="F2" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C3" s="1">
@@ -792,18 +808,18 @@
       <c r="E3" s="3">
         <v>96</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G3" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="1">
@@ -815,18 +831,18 @@
       <c r="E4" s="3">
         <v>96</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="1">
@@ -838,7 +854,7 @@
       <c r="E5" s="3">
         <v>128</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="9" t="s">
         <v>86</v>
       </c>
       <c r="G5" s="3">
@@ -846,11 +862,11 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C6" s="1">
@@ -859,15 +875,15 @@
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="F6" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="1">
@@ -876,15 +892,15 @@
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="F7" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C8" s="1">
@@ -896,18 +912,18 @@
       <c r="E8" s="3">
         <v>96</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="9" t="s">
         <v>86</v>
       </c>
       <c r="G8" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="1">
@@ -919,18 +935,18 @@
       <c r="E9" s="3">
         <v>96</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G9" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="10" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="1">
@@ -942,18 +958,18 @@
       <c r="E10" s="3">
         <v>96</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G10" s="3">
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    <row r="11" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="1">
@@ -965,18 +981,18 @@
       <c r="E11" s="3">
         <v>96</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="9" t="s">
         <v>86</v>
       </c>
       <c r="G11" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="1">
@@ -988,18 +1004,18 @@
       <c r="E12" s="3">
         <v>96</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G12" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="13" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C13" s="1">
@@ -1008,15 +1024,15 @@
       <c r="D13" s="3">
         <v>1.5</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="F13" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="1">
@@ -1025,15 +1041,15 @@
       <c r="D14" s="3">
         <v>1.5</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="F14" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="1">
@@ -1042,15 +1058,15 @@
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="F15" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="1">
@@ -1059,15 +1075,15 @@
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="F16" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="1">
@@ -1079,18 +1095,18 @@
       <c r="E17" s="3">
         <v>96</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G17" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="18" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C18" s="1">
@@ -1102,18 +1118,18 @@
       <c r="E18" s="3">
         <v>96</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G18" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="19" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="1">
@@ -1125,18 +1141,18 @@
       <c r="E19" s="3">
         <v>96</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G19" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="20" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C20" s="1">
@@ -1145,15 +1161,15 @@
       <c r="D20" s="3">
         <v>1.5</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="F20" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="1">
@@ -1162,15 +1178,15 @@
       <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="F21" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="1">
@@ -1179,15 +1195,15 @@
       <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="F22" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="1">
@@ -1196,15 +1212,15 @@
       <c r="D23" s="3">
         <v>1.5</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="F23" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="1">
@@ -1216,18 +1232,18 @@
       <c r="E24" s="3">
         <v>96</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="9" t="s">
         <v>86</v>
       </c>
       <c r="G24" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+    <row r="25" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="1">
@@ -1239,18 +1255,18 @@
       <c r="E25" s="3">
         <v>96</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="9" t="s">
         <v>86</v>
       </c>
       <c r="G25" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+    <row r="26" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C26" s="1">
@@ -1262,18 +1278,18 @@
       <c r="E26" s="3">
         <v>96</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="9" t="s">
         <v>86</v>
       </c>
       <c r="G26" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+    <row r="27" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C27" s="1">
@@ -1285,18 +1301,18 @@
       <c r="E27" s="3">
         <v>96</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="9" t="s">
         <v>86</v>
       </c>
       <c r="G27" s="3">
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="28" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C28" s="1">
@@ -1308,18 +1324,18 @@
       <c r="E28" s="3">
         <v>96</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="9" t="s">
         <v>86</v>
       </c>
       <c r="G28" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+    <row r="29" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="1">
@@ -1331,18 +1347,18 @@
       <c r="E29" s="3">
         <v>96</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G29" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+    <row r="30" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="1">
@@ -1354,18 +1370,18 @@
       <c r="E30" s="3">
         <v>96</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G30" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+    <row r="31" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C31" s="1">
@@ -1377,18 +1393,18 @@
       <c r="E31" s="3">
         <v>128</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="9" t="s">
         <v>86</v>
       </c>
       <c r="G31" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+    <row r="32" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C32" s="1">
@@ -1400,18 +1416,18 @@
       <c r="E32" s="3">
         <v>128</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="9" t="s">
         <v>86</v>
       </c>
       <c r="G32" s="3">
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+    <row r="33" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="1">
@@ -1423,18 +1439,18 @@
       <c r="E33" s="3">
         <v>96</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G33" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+    <row r="34" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C34" s="1">
@@ -1446,18 +1462,18 @@
       <c r="E34" s="3">
         <v>96</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G34" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+    <row r="35" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="1">
@@ -1469,18 +1485,18 @@
       <c r="E35" s="3">
         <v>96</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G35" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    <row r="36" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C36" s="1">
@@ -1492,18 +1508,18 @@
       <c r="E36" s="3">
         <v>96</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="9" t="s">
         <v>86</v>
       </c>
       <c r="G36" s="3">
         <v>501</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+    <row r="37" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C37" s="1">
@@ -1515,18 +1531,18 @@
       <c r="E37" s="3">
         <v>96</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="9" t="s">
         <v>87</v>
       </c>
       <c r="G37" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+    <row r="38" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C38" s="1">
@@ -1538,18 +1554,18 @@
       <c r="E38" s="3">
         <v>96</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G38" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+    <row r="39" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C39" s="1">
@@ -1561,18 +1577,18 @@
       <c r="E39" s="3">
         <v>96</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G39" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+    <row r="40" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="1">
@@ -1584,18 +1600,18 @@
       <c r="E40" s="3">
         <v>96</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G40" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+    <row r="41" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C41" s="1">
@@ -1607,18 +1623,18 @@
       <c r="E41" s="3">
         <v>96</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="9" t="s">
         <v>86</v>
       </c>
       <c r="G41" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+    <row r="42" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C42" s="1">
@@ -1630,18 +1646,18 @@
       <c r="E42" s="3">
         <v>96</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="9" t="s">
         <v>86</v>
       </c>
       <c r="G42" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+    <row r="43" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="1">
@@ -1653,18 +1669,18 @@
       <c r="E43" s="3">
         <v>96</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="9" t="s">
         <v>86</v>
       </c>
       <c r="G43" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+    <row r="44" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C44" s="1">
@@ -1676,18 +1692,18 @@
       <c r="E44" s="3">
         <v>96</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G44" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+    <row r="45" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C45" s="1">
@@ -1699,18 +1715,18 @@
       <c r="E45" s="3">
         <v>96</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G45" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+    <row r="46" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C46" s="1">
@@ -1722,15 +1738,15 @@
       <c r="E46" s="3">
         <v>96</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G46" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="5" t="s">
+    <row r="47" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="B47" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C47" s="1">
@@ -1739,12 +1755,12 @@
       <c r="D47" s="3">
         <v>1</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="5" t="s">
+      <c r="F47" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="B48" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C48" s="1">
@@ -1753,12 +1769,12 @@
       <c r="D48" s="3">
         <v>1</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="5" t="s">
+      <c r="F48" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="B49" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C49" s="1">
@@ -1767,15 +1783,15 @@
       <c r="D49" s="3">
         <v>1</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+      <c r="F49" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C50" s="1">
@@ -1787,18 +1803,18 @@
       <c r="E50" s="3">
         <v>64</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G50" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+    <row r="51" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C51" s="1">
@@ -1810,18 +1826,18 @@
       <c r="E51" s="3">
         <v>96</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G51" s="3">
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+    <row r="52" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C52" s="1">
@@ -1833,18 +1849,18 @@
       <c r="E52" s="3">
         <v>96</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G52" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
+    <row r="53" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C53" s="1">
@@ -1856,18 +1872,18 @@
       <c r="E53" s="3">
         <v>96</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G53" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
+    <row r="54" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C54" s="1">
@@ -1876,15 +1892,15 @@
       <c r="D54" s="3">
         <v>1.5</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
+      <c r="F54" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C55" s="1">
@@ -1893,15 +1909,15 @@
       <c r="D55" s="3">
         <v>1</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+      <c r="F55" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C56" s="1">
@@ -1910,15 +1926,15 @@
       <c r="D56" s="3">
         <v>1</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
+      <c r="F56" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C57" s="1">
@@ -1930,18 +1946,18 @@
       <c r="E57" s="3">
         <v>96</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G57" s="3">
         <v>211</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
+    <row r="58" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C58" s="1">
@@ -1953,18 +1969,18 @@
       <c r="E58" s="3">
         <v>96</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G58" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
+    <row r="59" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C59" s="1">
@@ -1976,18 +1992,18 @@
       <c r="E59" s="3">
         <v>96</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G59" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
+    <row r="60" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C60" s="1">
@@ -1999,18 +2015,18 @@
       <c r="E60" s="3">
         <v>96</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G60" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
+    <row r="61" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C61" s="1">
@@ -2022,18 +2038,18 @@
       <c r="E61" s="3">
         <v>96</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G61" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
+    <row r="62" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C62" s="1">
@@ -2045,18 +2061,18 @@
       <c r="E62" s="3">
         <v>96</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G62" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
+    <row r="63" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C63" s="1">
@@ -2068,18 +2084,18 @@
       <c r="E63" s="3">
         <v>96</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G63" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
+    <row r="64" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C64" s="1">
@@ -2091,18 +2107,18 @@
       <c r="E64" s="3">
         <v>96</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G64" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
+    <row r="65" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C65" s="1">
@@ -2114,18 +2130,18 @@
       <c r="E65" s="3">
         <v>96</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="9" t="s">
         <v>86</v>
       </c>
       <c r="G65" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
+    <row r="66" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C66" s="1">
@@ -2137,18 +2153,18 @@
       <c r="E66" s="3">
         <v>96</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="9" t="s">
         <v>86</v>
       </c>
       <c r="G66" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
+    <row r="67" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C67" s="1">
@@ -2160,18 +2176,18 @@
       <c r="E67" s="3">
         <v>96</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G67" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
+    <row r="68" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C68" s="1">
@@ -2183,18 +2199,18 @@
       <c r="E68" s="3">
         <v>32</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G68" s="3">
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
+    <row r="69" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C69" s="1">
@@ -2206,18 +2222,18 @@
       <c r="E69" s="3">
         <v>96</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G69" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
+    <row r="70" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C70" s="1">
@@ -2226,15 +2242,15 @@
       <c r="D70" s="3">
         <v>1.5</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
+      <c r="F70" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C71" s="1">
@@ -2243,15 +2259,15 @@
       <c r="D71" s="3">
         <v>1</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
+      <c r="F71" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C72" s="1">
@@ -2260,15 +2276,15 @@
       <c r="D72" s="3">
         <v>1</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
+      <c r="F72" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C73" s="1">
@@ -2280,18 +2296,18 @@
       <c r="E73" s="3">
         <v>96</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="9" t="s">
         <v>86</v>
       </c>
       <c r="G73" s="3">
         <v>384</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
+    <row r="74" ht="10.5" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C74" s="6">
@@ -2303,11 +2319,103 @@
       <c r="E74" s="7">
         <v>96</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="9" t="s">
         <v>86</v>
       </c>
       <c r="G74" s="7">
         <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="3">
+        <v>120210</v>
+      </c>
+      <c r="D75" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E75" s="3">
+        <v>128</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G75" s="3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="3">
+        <v>120210</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E76" s="3">
+        <v>128</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G76" s="3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="3">
+        <v>150504</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E77" s="3">
+        <v>88</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G77" s="3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="3">
+        <v>150504</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E78" s="3">
+        <v>88</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G78" s="3">
+        <v>718</v>
       </c>
     </row>
   </sheetData>
